--- a/biology/Histoire de la zoologie et de la botanique/Richard_L._Hoffman/Richard_L._Hoffman.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Richard_L._Hoffman/Richard_L._Hoffman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Lawrence Hoffman (25 septembre 1927 - 10 juin 2012) était un zoologiste américain connu comme un expert international sur les diplopodes, et une autorité de premier plan sur l'histoire naturelle de la Virginie et les Appalaches.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été professeur de biologie à Radford College de Virginie depuis près de trente ans, et le conservateur des invertébrés au Virginia Museum of Natural History pendant encore vingt ans. Il a co-fondé la Virginie Natural History Society, décrit plus de 400 espèces de mille-pattes, et a produit plus de 480 publications scientifiques. Il est commémoré dans les noms scientifiques de plus de 30 espèces animales, y compris la salamandre Plethodon hoffmani et centipede Nannarrup hoffmani[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été professeur de biologie à Radford College de Virginie depuis près de trente ans, et le conservateur des invertébrés au Virginia Museum of Natural History pendant encore vingt ans. Il a co-fondé la Virginie Natural History Society, décrit plus de 400 espèces de mille-pattes, et a produit plus de 480 publications scientifiques. Il est commémoré dans les noms scientifiques de plus de 30 espèces animales, y compris la salamandre Plethodon hoffmani et centipede Nannarrup hoffmani,.
 </t>
         </is>
       </c>
